--- a/phrases_jp.xlsx
+++ b/phrases_jp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19wuj\PycharmProjects\listenlanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2421EF9E-9206-4DB0-A9F0-B555177DE006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C35ACA-A8CB-4ABE-AE1A-56EEBAF6F28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,267 +20,348 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+  <si>
+    <t>ふゆ</t>
+  </si>
+  <si>
+    <t>冬天</t>
+  </si>
+  <si>
+    <t>54448380</t>
+  </si>
+  <si>
+    <t>なつ</t>
+  </si>
+  <si>
+    <t>夏天</t>
+  </si>
+  <si>
+    <t>54448390</t>
+  </si>
+  <si>
+    <t>くもり</t>
+  </si>
+  <si>
+    <t>阴天</t>
+  </si>
+  <si>
+    <t>54448398</t>
+  </si>
+  <si>
+    <t>ひる</t>
+  </si>
+  <si>
+    <t>白天</t>
+  </si>
+  <si>
+    <t>54448408</t>
+  </si>
+  <si>
+    <t>よる</t>
+  </si>
+  <si>
+    <t>晚上</t>
+  </si>
+  <si>
+    <t>54448419</t>
+  </si>
+  <si>
+    <t>はれ</t>
+  </si>
+  <si>
+    <t>晴天</t>
+  </si>
+  <si>
+    <t>54448431</t>
+  </si>
+  <si>
+    <t>へや</t>
+  </si>
+  <si>
+    <t>房间</t>
+  </si>
+  <si>
+    <t>54448435</t>
+  </si>
+  <si>
+    <t>そと</t>
+  </si>
+  <si>
+    <t>外面</t>
+  </si>
+  <si>
+    <t>54448442</t>
+  </si>
+  <si>
+    <t>いえ</t>
+  </si>
+  <si>
+    <t>家</t>
+  </si>
+  <si>
+    <t>54448447</t>
+  </si>
+  <si>
+    <t>54304101</t>
+  </si>
+  <si>
+    <t>铅笔</t>
+  </si>
+  <si>
+    <t>えんぴつ</t>
+  </si>
+  <si>
+    <t>54304096</t>
+  </si>
+  <si>
+    <t>天妇罗</t>
+  </si>
+  <si>
+    <t>てんぷら</t>
+  </si>
+  <si>
+    <t>54304091</t>
+  </si>
+  <si>
+    <t>便当</t>
+  </si>
+  <si>
+    <t>べんとう</t>
+  </si>
+  <si>
+    <t>54304086</t>
+  </si>
+  <si>
+    <t>包</t>
+  </si>
+  <si>
+    <t>かばん</t>
+  </si>
+  <si>
+    <t>54304084</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>でんわ</t>
+  </si>
+  <si>
+    <t>54304079</t>
+  </si>
+  <si>
+    <t>水果</t>
+  </si>
+  <si>
+    <t>くだもの</t>
+  </si>
+  <si>
+    <t>54304073</t>
+  </si>
+  <si>
+    <t>emoji</t>
+  </si>
+  <si>
+    <t>えもじ</t>
+  </si>
+  <si>
+    <t>54304071</t>
+  </si>
+  <si>
+    <t>风</t>
+  </si>
+  <si>
+    <t>かぜ</t>
+  </si>
+  <si>
+    <t>54304070</t>
+  </si>
+  <si>
+    <t>地图</t>
+  </si>
+  <si>
+    <t>ちず</t>
+  </si>
+  <si>
+    <t>54304068</t>
+  </si>
+  <si>
+    <t>甜的</t>
+  </si>
+  <si>
+    <t>あまい</t>
+  </si>
+  <si>
+    <t>54304061</t>
+  </si>
+  <si>
+    <t>红</t>
+  </si>
+  <si>
+    <t>あか</t>
+  </si>
+  <si>
+    <t>54304056</t>
+  </si>
+  <si>
+    <t>酒</t>
+  </si>
+  <si>
+    <t>おさけ</t>
+  </si>
+  <si>
+    <t>54304050</t>
+  </si>
+  <si>
+    <t>喝</t>
+  </si>
+  <si>
+    <t>のむ</t>
+  </si>
+  <si>
+    <t>54304044</t>
+  </si>
+  <si>
+    <t>银行</t>
+  </si>
+  <si>
+    <t>ぎんこう</t>
+  </si>
+  <si>
+    <t>54304043</t>
+  </si>
+  <si>
+    <t>漫画</t>
+  </si>
+  <si>
+    <t>まんが</t>
+  </si>
+  <si>
+    <t>54370990</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>しろ</t>
+  </si>
+  <si>
+    <t>54370987</t>
+  </si>
+  <si>
+    <t>眼睛</t>
+  </si>
+  <si>
+    <t>め</t>
+  </si>
+  <si>
+    <t>54370985</t>
+  </si>
+  <si>
+    <t>耳朵</t>
+  </si>
+  <si>
+    <t>みみ</t>
+  </si>
+  <si>
+    <t>54370982</t>
+  </si>
+  <si>
+    <t>背部</t>
+  </si>
+  <si>
+    <t>せなか</t>
+  </si>
+  <si>
+    <t>54370976</t>
+  </si>
+  <si>
+    <t>鸟</t>
+  </si>
+  <si>
+    <t>とり</t>
+  </si>
+  <si>
+    <t>54370973</t>
+  </si>
+  <si>
+    <t>狗</t>
+  </si>
+  <si>
+    <t>いぬ</t>
+  </si>
+  <si>
+    <t>54370966</t>
+  </si>
+  <si>
+    <t>脏的猫</t>
+  </si>
+  <si>
+    <t>きたないねこ</t>
+  </si>
+  <si>
+    <t>54370961</t>
+  </si>
+  <si>
+    <t>七</t>
+  </si>
+  <si>
+    <t>なな</t>
+  </si>
+  <si>
+    <t>54370956</t>
+  </si>
+  <si>
+    <t>纳豆</t>
+  </si>
+  <si>
+    <t>なっとう</t>
+  </si>
+  <si>
+    <t>54370951</t>
+  </si>
+  <si>
+    <t>票</t>
+  </si>
+  <si>
+    <t>きっぷ</t>
+  </si>
+  <si>
+    <t>54370944</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>がっこう</t>
+  </si>
+  <si>
+    <t>54370940</t>
+  </si>
+  <si>
+    <t>今天</t>
+  </si>
+  <si>
+    <t>きょう</t>
+  </si>
+  <si>
+    <t>54370938</t>
+  </si>
+  <si>
+    <t>九</t>
+  </si>
+  <si>
+    <t>きゅう</t>
+  </si>
+  <si>
+    <t>54370935</t>
+  </si>
+  <si>
+    <t>茶</t>
+  </si>
   <si>
     <t>おちゃ</t>
-  </si>
-  <si>
-    <t>茶</t>
-  </si>
-  <si>
-    <t>54370935</t>
-  </si>
-  <si>
-    <t>きゅう</t>
-  </si>
-  <si>
-    <t>九</t>
-  </si>
-  <si>
-    <t>54370938</t>
-  </si>
-  <si>
-    <t>きょう</t>
-  </si>
-  <si>
-    <t>今天</t>
-  </si>
-  <si>
-    <t>54370940</t>
-  </si>
-  <si>
-    <t>がっこう</t>
-  </si>
-  <si>
-    <t>学校</t>
-  </si>
-  <si>
-    <t>54370944</t>
-  </si>
-  <si>
-    <t>きっぷ</t>
-  </si>
-  <si>
-    <t>票</t>
-  </si>
-  <si>
-    <t>54370951</t>
-  </si>
-  <si>
-    <t>なっとう</t>
-  </si>
-  <si>
-    <t>纳豆</t>
-  </si>
-  <si>
-    <t>54370956</t>
-  </si>
-  <si>
-    <t>なな</t>
-  </si>
-  <si>
-    <t>七</t>
-  </si>
-  <si>
-    <t>54370961</t>
-  </si>
-  <si>
-    <t>きたないねこ</t>
-  </si>
-  <si>
-    <t>脏的猫</t>
-  </si>
-  <si>
-    <t>54370966</t>
-  </si>
-  <si>
-    <t>いぬ</t>
-  </si>
-  <si>
-    <t>狗</t>
-  </si>
-  <si>
-    <t>54370973</t>
-  </si>
-  <si>
-    <t>とり</t>
-  </si>
-  <si>
-    <t>鸟</t>
-  </si>
-  <si>
-    <t>54370976</t>
-  </si>
-  <si>
-    <t>せなか</t>
-  </si>
-  <si>
-    <t>背部</t>
-  </si>
-  <si>
-    <t>54370982</t>
-  </si>
-  <si>
-    <t>みみ</t>
-  </si>
-  <si>
-    <t>耳朵</t>
-  </si>
-  <si>
-    <t>54370985</t>
-  </si>
-  <si>
-    <t>め</t>
-  </si>
-  <si>
-    <t>眼睛</t>
-  </si>
-  <si>
-    <t>54370987</t>
-  </si>
-  <si>
-    <t>しろ</t>
-  </si>
-  <si>
-    <t>白</t>
-  </si>
-  <si>
-    <t>54370990</t>
-  </si>
-  <si>
-    <t>54304101</t>
-  </si>
-  <si>
-    <t>铅笔</t>
-  </si>
-  <si>
-    <t>えんぴつ</t>
-  </si>
-  <si>
-    <t>54304096</t>
-  </si>
-  <si>
-    <t>天妇罗</t>
-  </si>
-  <si>
-    <t>てんぷら</t>
-  </si>
-  <si>
-    <t>54304091</t>
-  </si>
-  <si>
-    <t>便当</t>
-  </si>
-  <si>
-    <t>べんとう</t>
-  </si>
-  <si>
-    <t>54304086</t>
-  </si>
-  <si>
-    <t>包</t>
-  </si>
-  <si>
-    <t>かばん</t>
-  </si>
-  <si>
-    <t>54304084</t>
-  </si>
-  <si>
-    <t>电话</t>
-  </si>
-  <si>
-    <t>でんわ</t>
-  </si>
-  <si>
-    <t>54304079</t>
-  </si>
-  <si>
-    <t>水果</t>
-  </si>
-  <si>
-    <t>くだもの</t>
-  </si>
-  <si>
-    <t>54304073</t>
-  </si>
-  <si>
-    <t>emoji</t>
-  </si>
-  <si>
-    <t>えもじ</t>
-  </si>
-  <si>
-    <t>54304071</t>
-  </si>
-  <si>
-    <t>风</t>
-  </si>
-  <si>
-    <t>かぜ</t>
-  </si>
-  <si>
-    <t>54304070</t>
-  </si>
-  <si>
-    <t>地图</t>
-  </si>
-  <si>
-    <t>ちず</t>
-  </si>
-  <si>
-    <t>54304068</t>
-  </si>
-  <si>
-    <t>甜的</t>
-  </si>
-  <si>
-    <t>あまい</t>
-  </si>
-  <si>
-    <t>54304061</t>
-  </si>
-  <si>
-    <t>红</t>
-  </si>
-  <si>
-    <t>あか</t>
-  </si>
-  <si>
-    <t>54304056</t>
-  </si>
-  <si>
-    <t>酒</t>
-  </si>
-  <si>
-    <t>おさけ</t>
-  </si>
-  <si>
-    <t>54304050</t>
-  </si>
-  <si>
-    <t>喝</t>
-  </si>
-  <si>
-    <t>のむ</t>
-  </si>
-  <si>
-    <t>54304044</t>
-  </si>
-  <si>
-    <t>银行</t>
-  </si>
-  <si>
-    <t>ぎんこう</t>
-  </si>
-  <si>
-    <t>54304043</t>
-  </si>
-  <si>
-    <t>漫画</t>
-  </si>
-  <si>
-    <t>まんが</t>
   </si>
 </sst>
 </file>
@@ -664,16 +745,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" ht="17.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -683,8 +764,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="17.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -773,222 +854,321 @@
     </row>
     <row r="10" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
+      <c r="A11" t="s">
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B19" t="s">
         <v>85</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="20" spans="1:3" ht="17.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B20" t="s">
         <v>82</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="21" spans="1:3" ht="17.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B21" t="s">
         <v>79</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="22" spans="1:3" ht="17.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B22" t="s">
         <v>76</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="23" spans="1:3" ht="17.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B23" t="s">
         <v>73</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>71</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B24" t="s">
         <v>70</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>68</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" t="s">
         <v>67</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C25" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B33" t="s">
         <v>43</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C33" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
